--- a/dongxw-service/src/main/resources/templates/po_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/po_template.xlsx
@@ -247,11 +247,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -358,6 +358,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -365,142 +501,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -517,19 +517,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,49 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,109 +679,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,6 +1093,71 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,56 +1177,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,36 +1194,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,138 +1212,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1512,11 +1512,8 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1570,7 +1567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1978,8 +1975,8 @@
   </sheetPr>
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2041,7 +2038,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="71"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:14">
       <c r="A5" s="11" t="s">
@@ -2096,7 +2093,7 @@
       <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:10">
@@ -2116,8 +2113,8 @@
       <c r="H8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A9" s="17" t="s">
@@ -2136,7 +2133,7 @@
       <c r="H9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A10" s="17" t="s">
@@ -2155,7 +2152,7 @@
       <c r="H10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A11" s="17" t="s">
@@ -2174,7 +2171,7 @@
       <c r="H11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:9">
       <c r="A12" s="27" t="s">
@@ -2187,7 +2184,7 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="75"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="32.25" customHeight="1" spans="1:13">
       <c r="A13" s="30" t="s">
@@ -2214,11 +2211,11 @@
       <c r="H13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="75" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="77"/>
+      <c r="L13" s="76"/>
       <c r="M13"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
@@ -2246,12 +2243,12 @@
       <c r="H14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="77" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A15" s="39">
@@ -2264,10 +2261,10 @@
       <c r="F15" s="41"/>
       <c r="G15" s="43"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="79"/>
+      <c r="I15" s="78"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A16" s="39">
@@ -2280,10 +2277,10 @@
       <c r="F16" s="41"/>
       <c r="G16" s="43"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="79"/>
+      <c r="I16" s="78"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A17" s="39">
@@ -2296,10 +2293,10 @@
       <c r="F17" s="41"/>
       <c r="G17" s="43"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="79"/>
+      <c r="I17" s="78"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A18" s="39">
@@ -2312,10 +2309,10 @@
       <c r="F18" s="41"/>
       <c r="G18" s="43"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="79"/>
+      <c r="I18" s="78"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A19" s="39">
@@ -2328,10 +2325,10 @@
       <c r="F19" s="41"/>
       <c r="G19" s="43"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="79"/>
+      <c r="I19" s="78"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
     </row>
     <row r="20" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A20" s="39">
@@ -2344,10 +2341,10 @@
       <c r="F20" s="41"/>
       <c r="G20" s="43"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="79"/>
+      <c r="I20" s="78"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
       <c r="A21" s="39">
@@ -2360,10 +2357,10 @@
       <c r="F21" s="46"/>
       <c r="G21" s="48"/>
       <c r="H21" s="49"/>
-      <c r="I21" s="80"/>
+      <c r="I21" s="79"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A22" s="50" t="s">
@@ -2380,10 +2377,10 @@
       <c r="H22" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="80"/>
+      <c r="I22" s="79"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
     </row>
     <row r="23" s="4" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A23" s="54" t="s">
@@ -2398,10 +2395,10 @@
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="81"/>
+      <c r="I23" s="80"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="21" customHeight="1" spans="1:17">
       <c r="A24" s="57"/>
@@ -2414,14 +2411,14 @@
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
-      <c r="I24" s="82"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
+      <c r="I24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:13">
       <c r="A25" s="60" t="s">
@@ -2429,156 +2426,163 @@
       </c>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
-      <c r="I25" s="84"/>
+      <c r="I25" s="83"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A26" s="63"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="85"/>
+      <c r="I26" s="84"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A27" s="63"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="85"/>
+      <c r="I27" s="84"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="86"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="85"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" s="6" customFormat="1" spans="1:9">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="M32" s="87"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="69" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="M32" s="86"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" ht="30.75" customHeight="1"/>
     <row r="35" ht="21" customHeight="1"/>
     <row r="36" ht="17" customHeight="1" spans="2:8">
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="2:8">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="68" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="4:5">
-      <c r="D42" s="70"/>
-      <c r="E42" s="64"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="63"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="69"/>
+      <c r="C75" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -2606,10 +2610,12 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D24:I24"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
     <mergeCell ref="A23:C24"/>
   </mergeCells>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.28" bottom="0.23" header="0.22" footer="0.18"/>

--- a/dongxw-service/src/main/resources/templates/po_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/po_template.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23295" windowHeight="13140"/>
+    <workbookView windowWidth="16997" windowHeight="9325"/>
   </bookViews>
   <sheets>
     <sheet name="胶袋" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -32,13 +31,13 @@
     <t>订货日期： {{orderDate}}                        交货日期：{{issueDate}}</t>
   </si>
   <si>
-    <t>需方（甲方）：</t>
+    <t>需方(甲方)：</t>
   </si>
   <si>
     <t>深圳市东兴富科技有限公司</t>
   </si>
   <si>
-    <t>供方（乙方）：</t>
+    <t>供方(乙方)：</t>
   </si>
   <si>
     <t>{{supplyName}}</t>
@@ -247,11 +246,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -311,6 +310,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -339,12 +345,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -358,13 +358,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -372,8 +374,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +406,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -395,7 +427,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,17 +457,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,28 +480,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -471,14 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -486,17 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,187 +517,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,6 +1093,62 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,17 +1168,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,47 +1186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1185,25 +1194,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,138 +1212,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1382,7 +1382,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1396,16 +1396,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1440,10 +1443,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,31 +1458,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,25 +1497,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1527,9 +1533,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1537,20 +1540,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1558,10 +1560,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1570,9 +1572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1667,7 +1666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266700" y="0"/>
-          <a:ext cx="990600" cy="781050"/>
+          <a:ext cx="903605" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1973,23 +1972,23 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:I33"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="4.74774774774775" customWidth="1"/>
+    <col min="2" max="2" width="10.5045045045045" customWidth="1"/>
+    <col min="3" max="3" width="17.2522522522523" customWidth="1"/>
+    <col min="4" max="4" width="14.2522522522523" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.74774774774775" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.1261261261261" customWidth="1"/>
+    <col min="7" max="7" width="10.5045045045045" customWidth="1"/>
+    <col min="8" max="8" width="10.6216216216216" customWidth="1"/>
+    <col min="9" max="9" width="15.981981981982" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
@@ -2038,9 +2037,9 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:14">
+      <c r="I4" s="71"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -2052,13 +2051,8 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="6" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2070,13 +2064,8 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:10">
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
@@ -2085,18 +2074,17 @@
         <v>6</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:10">
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:9">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2105,16 +2093,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A9" s="17" t="s">
@@ -2130,456 +2117,410 @@
         <v>12</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="24">
+      <c r="C10" s="25">
         <v>18988780912</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="23"/>
       <c r="F10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="74"/>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="32.25" customHeight="1" spans="1:13">
-      <c r="A13" s="30" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="75"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="76"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A14" s="34">
+    </row>
+    <row r="14" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A14" s="35">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A15" s="39">
+    </row>
+    <row r="15" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A15" s="41">
         <v>2</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="78"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A16" s="39">
+    </row>
+    <row r="16" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A16" s="41">
         <v>3</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="78"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A17" s="39">
+    </row>
+    <row r="17" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A17" s="41">
         <v>4</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="78"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-    </row>
-    <row r="18" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A18" s="39">
+    </row>
+    <row r="18" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A18" s="41">
         <v>5</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="78"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A19" s="39">
+    </row>
+    <row r="19" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A19" s="41">
         <v>6</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="78"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-    </row>
-    <row r="20" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A20" s="39">
+    </row>
+    <row r="20" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A20" s="41">
         <v>7</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="78"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:13">
-      <c r="A21" s="39">
+    </row>
+    <row r="21" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A21" s="41">
         <v>8</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="79"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-    </row>
-    <row r="22" s="4" customFormat="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A22" s="50" t="s">
+    </row>
+    <row r="22" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A22" s="41">
+        <v>9</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="79"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A23" s="41">
+        <v>10</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="79"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A24" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="46" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="49" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A23" s="54" t="s">
+      <c r="I24" s="79"/>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A25" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="80"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="21" customHeight="1" spans="1:17">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A25" s="60" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A27" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="83"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A26" s="62"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="84"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:13">
-      <c r="A27" s="62"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="84"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:13">
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="83"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:9">
       <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="85"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="67" t="s">
-        <v>45</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="84"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A29" s="66"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
       <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="67" t="s">
+      <c r="I29" s="85"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" s="6" customFormat="1" spans="1:9">
-      <c r="A31" s="67" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+    </row>
+    <row r="32" s="6" customFormat="1" spans="1:9">
+      <c r="A32" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-    </row>
-    <row r="32" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A32" s="67" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+    </row>
+    <row r="33" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A33" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="M32" s="86"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="67" t="s">
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-    </row>
-    <row r="34" ht="30.75" customHeight="1"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+    </row>
     <row r="35" ht="21" customHeight="1"/>
     <row r="36" ht="17" customHeight="1" spans="2:8">
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="70" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="2:8">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="68" t="s">
+      <c r="H37" s="70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" ht="18.75" spans="4:5">
-      <c r="D42" s="69"/>
-      <c r="E42" s="63"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="68"/>
+    <row r="49" spans="3:3">
+      <c r="C49" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -2590,11 +2531,11 @@
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:G9"/>
@@ -2607,37 +2548,20 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="A27:I27"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A25:C26"/>
   </mergeCells>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.28" bottom="0.23" header="0.22" footer="0.18"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/dongxw-service/src/main/resources/templates/po_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/po_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16997" windowHeight="9325"/>
+    <workbookView windowWidth="19530" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="胶袋" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>HK Eastern-Pro industry  Limited</t>
   </si>
@@ -163,7 +163,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>{{!fe: list t.code</t>
+    <t>{{$fe: list t.seq</t>
+  </si>
+  <si>
+    <t>t.code</t>
   </si>
   <si>
     <t>t.name</t>
@@ -246,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="35">
@@ -358,6 +361,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -368,115 +484,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,13 +504,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -517,6 +520,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,13 +616,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,150 +688,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -702,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -834,17 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -886,19 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -922,6 +901,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1103,6 +1095,63 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1137,73 +1186,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,19 +1204,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,117 +1225,117 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1437,94 +1429,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1536,42 +1516,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="29" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1666,7 +1646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266700" y="0"/>
-          <a:ext cx="903605" cy="781050"/>
+          <a:ext cx="893445" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,23 +1952,23 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.74774774774775" customWidth="1"/>
-    <col min="2" max="2" width="10.5045045045045" customWidth="1"/>
-    <col min="3" max="3" width="17.2522522522523" customWidth="1"/>
-    <col min="4" max="4" width="14.2522522522523" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.74774774774775" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.1261261261261" customWidth="1"/>
-    <col min="7" max="7" width="10.5045045045045" customWidth="1"/>
-    <col min="8" max="8" width="10.6216216216216" customWidth="1"/>
-    <col min="9" max="9" width="15.981981981982" customWidth="1"/>
+    <col min="1" max="1" width="4.74545454545455" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="17.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="14.2545454545455" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.74545454545455" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.1272727272727" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.6181818181818" customWidth="1"/>
+    <col min="9" max="9" width="15.9818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
@@ -2037,7 +2017,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="71"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A5" s="11" t="s">
@@ -2082,7 +2062,7 @@
       <c r="H7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:9">
       <c r="A8" s="17" t="s">
@@ -2101,7 +2081,7 @@
       <c r="H8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A9" s="17" t="s">
@@ -2120,7 +2100,7 @@
       <c r="H9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A10" s="17" t="s">
@@ -2139,7 +2119,7 @@
       <c r="H10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A11" s="17" t="s">
@@ -2158,7 +2138,7 @@
       <c r="H11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:9">
       <c r="A12" s="28" t="s">
@@ -2171,7 +2151,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="75"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="32.25" customHeight="1" spans="1:9">
       <c r="A13" s="31" t="s">
@@ -2198,329 +2178,223 @@
       <c r="H13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A14" s="35">
-        <v>1</v>
-      </c>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="H14" s="39" t="s">
         <v>37</v>
       </c>
+      <c r="I14" s="73" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A15" s="41">
-        <v>2</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="78"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A16" s="41">
-        <v>3</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="78"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A17" s="41">
-        <v>4</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="78"/>
-    </row>
-    <row r="18" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A18" s="41">
-        <v>5</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="78"/>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A19" s="41">
-        <v>6</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="78"/>
-    </row>
-    <row r="20" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A20" s="41">
-        <v>7</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A21" s="41">
-        <v>8</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="79"/>
-    </row>
-    <row r="22" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A22" s="41">
-        <v>9</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="79"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A23" s="41">
-        <v>10</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="79"/>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A24" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="48" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="74"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A16" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="51" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="79"/>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="21" customHeight="1" spans="1:9">
-      <c r="A25" s="56" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A17" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A27" s="62" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="83"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A28" s="64"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="84"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="85"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="69" t="s">
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="69" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="79"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A20" s="60"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-    </row>
-    <row r="32" s="6" customFormat="1" spans="1:9">
-      <c r="A32" s="69" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-    </row>
-    <row r="33" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A33" s="69" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:9">
+      <c r="A24" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="69" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A25" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-    </row>
-    <row r="35" ht="21" customHeight="1"/>
-    <row r="36" ht="17" customHeight="1" spans="2:8">
-      <c r="B36" s="70" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" ht="21" customHeight="1"/>
+    <row r="28" ht="17" customHeight="1" spans="2:8">
+      <c r="B28" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="D28" s="66" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="2:8">
-      <c r="B37" s="70" t="s">
+      <c r="H28" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="70" t="s">
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="2:8">
+      <c r="B29" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="D29" s="66" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="70"/>
+      <c r="H29" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -2548,16 +2422,16 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A17:C18"/>
   </mergeCells>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.28" bottom="0.23" header="0.22" footer="0.18"/>
   <pageSetup paperSize="9" orientation="portrait"/>
